--- a/Tabelas_Relatório.xlsx
+++ b/Tabelas_Relatório.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c83e4eded728453d/UFRJ/24.2/Grafos/Teoria-dos-Grafos-Trabalho-P1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c83e4eded728453d/UFRJ/24.2/Grafos/Teoria-dos-Grafos-Trabalho-P1/resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAFB1520-2D56-411C-BDB9-A4D394999C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="220" documentId="8_{DAFB1520-2D56-411C-BDB9-A4D394999C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C12AA9F-F6A9-4A9F-8B12-553DC3463D60}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{91BD8685-C8F2-45CC-BA91-C786AE5C7D11}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="30">
   <si>
     <t>Grafo 1</t>
   </si>
@@ -81,13 +81,61 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lista </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matriz </t>
+  </si>
+  <si>
+    <t>Desempenho de Memória (GB)</t>
+  </si>
+  <si>
+    <t>Desempenho em tempo (média)</t>
+  </si>
+  <si>
+    <t>Diametro Aproximado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diametro Real </t>
+  </si>
+  <si>
+    <t>Diâmetro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Componentes Conexas </t>
+  </si>
+  <si>
+    <t>Quantidade</t>
+  </si>
+  <si>
+    <t>Maior</t>
+  </si>
+  <si>
+    <t>Menor</t>
+  </si>
+  <si>
+    <t>Distancia 2 pontos</t>
+  </si>
+  <si>
+    <t>10~20</t>
+  </si>
+  <si>
+    <t>10~30</t>
+  </si>
+  <si>
+    <t>20~30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,16 +149,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="lightTrellis"/>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -118,17 +177,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -145,6 +276,76 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Imagem 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FE1D022-49E7-65F4-BA31-4AE117B750C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4427220" y="6248400"/>
+          <a:ext cx="4434840" cy="739140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -464,15 +665,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D5B37B-B209-4C59-9FCB-85ADEABD347B}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.21875" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.109375" customWidth="1"/>
+    <col min="18" max="18" width="7" customWidth="1"/>
+    <col min="19" max="24" width="9.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -489,8 +697,9 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
@@ -500,187 +709,315 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1"/>
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="O2" s="2"/>
+      <c r="S2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="4"/>
+      <c r="J3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="Q3" s="7"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>2042</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3">
         <v>194465</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <v>1888350</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="3">
         <v>7663</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="1">
+      <c r="K4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="3">
         <v>357763</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="3">
         <v>2245850</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="O4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="6">
+        <v>8.2100599999999999E-3</v>
+      </c>
+      <c r="T4" s="6">
+        <v>4.1223839999999998E-2</v>
+      </c>
+      <c r="U4" s="6">
+        <v>9.8014769999999904E-2</v>
+      </c>
+      <c r="V4" s="6">
+        <v>0.35406858999999902</v>
+      </c>
+      <c r="W4" s="6">
+        <v>1.5344768199999901</v>
+      </c>
+      <c r="X4" s="6">
+        <v>2.2534340300000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>8382</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3">
         <v>274921</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="3">
         <v>2455</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="1">
+      <c r="K5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="3">
         <v>298215</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="N5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S5" s="6">
+        <v>2.1978610999999999</v>
+      </c>
+      <c r="T5" s="6">
+        <v>20.240519370000001</v>
+      </c>
+      <c r="U5" s="6">
+        <v>1921.29696333333</v>
+      </c>
+      <c r="V5" s="6">
+        <v>1935.3174247777699</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>8979</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3">
         <v>141597</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <v>136244</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="3">
         <v>2502539</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="3">
         <v>5317</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="1">
+      <c r="K6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="3">
         <v>141597</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="3">
         <v>140132</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="3">
         <v>191713</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="S6" s="6">
+        <v>1.5593259999999901E-2</v>
+      </c>
+      <c r="T6" s="6">
+        <v>8.4485270000000001E-2</v>
+      </c>
+      <c r="U6" s="6">
+        <v>0.12477750999999999</v>
+      </c>
+      <c r="V6" s="6">
+        <v>0.78169849000000002</v>
+      </c>
+      <c r="W6" s="6">
+        <v>2.3992758999999899</v>
+      </c>
+      <c r="X6" s="6">
+        <v>5.8150418999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Q7" s="9"/>
+      <c r="R7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S7" s="6">
+        <v>2.2061406699999999</v>
+      </c>
+      <c r="T7" s="6">
+        <v>20.304723839999902</v>
+      </c>
+      <c r="U7" s="6">
+        <v>1827.8005021111101</v>
+      </c>
+      <c r="V7" s="6">
+        <v>1841.1411577777701</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -697,8 +1034,9 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -708,187 +1046,193 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="1"/>
+      <c r="J9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="4"/>
+      <c r="J10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>8935</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>31751</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="3">
         <v>158403</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="1">
+      <c r="E11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="3">
         <v>1677854</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="1"/>
+      <c r="I11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="3">
         <v>7663</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="3">
         <v>19350</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="3">
         <v>60012</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N11" s="1">
+      <c r="M11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" s="3">
         <v>1701759</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>7541</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3">
         <v>75471</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="1">
+      <c r="E12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="3">
         <v>4095628</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="1"/>
+      <c r="I12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="3">
         <v>9543</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="1">
+      <c r="K12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="3">
         <v>229942</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N12" s="1">
+      <c r="M12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" s="3">
         <v>1521140</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <v>8660</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="1">
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="3">
         <v>4231681</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="1"/>
+      <c r="I13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="3">
         <v>5317</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N13" s="1">
+      <c r="K13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O13" s="3">
         <v>4296081</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -905,8 +1249,9 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
@@ -916,199 +1261,560 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="1"/>
+      <c r="J16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="4"/>
+      <c r="J17" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="M17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="N17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="O17" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="3">
         <v>7685</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="C18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="3">
         <v>158403</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="1">
+      <c r="E18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="3">
         <v>3696745</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="1" t="s">
+      <c r="G18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="3">
         <v>6425</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="1">
+      <c r="K18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="3">
         <v>360502</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" s="1">
+      <c r="M18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" s="3">
         <v>2245850</v>
       </c>
-      <c r="N18" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="O18" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="3">
         <v>9429</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="3">
         <v>46738</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="3">
         <v>319691</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="1" t="s">
+      <c r="E19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="3">
         <v>9071</v>
       </c>
-      <c r="J19" s="1">
+      <c r="K19" s="3">
         <v>28532</v>
       </c>
-      <c r="K19" s="1">
+      <c r="L19" s="3">
         <v>319691</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="M19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="3">
         <v>5783</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="3">
         <v>18855</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="1">
+      <c r="D20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="3">
         <v>191713</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="1" t="s">
+      <c r="G20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J20" s="3">
         <v>6936</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K20" s="3">
         <v>42718</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M20" s="1">
+      <c r="L20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N20" s="3">
         <v>191713</v>
       </c>
-      <c r="N20" s="1" t="s">
-        <v>14</v>
+      <c r="O20" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="1"/>
+      <c r="J23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="G25" s="3">
+        <v>2</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="3">
+        <v>1</v>
+      </c>
+      <c r="K25" s="3">
+        <v>10</v>
+      </c>
+      <c r="L25" s="3">
+        <v>2</v>
+      </c>
+      <c r="M25" s="3">
+        <v>2</v>
+      </c>
+      <c r="N25" s="3">
+        <v>5</v>
+      </c>
+      <c r="O25" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="D26" s="3">
+        <v>15.8</v>
+      </c>
+      <c r="E26" s="3">
+        <v>15.8</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K26" s="3">
+        <v>25000</v>
+      </c>
+      <c r="L26" s="3">
+        <v>250000</v>
+      </c>
+      <c r="M26" s="3">
+        <v>250000</v>
+      </c>
+      <c r="N26" s="3">
+        <v>2500000</v>
+      </c>
+      <c r="O26" s="3">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="I27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K27" s="3">
+        <v>48</v>
+      </c>
+      <c r="L27" s="3">
+        <v>125000</v>
+      </c>
+      <c r="M27" s="3">
+        <v>125000</v>
+      </c>
+      <c r="N27" s="3">
+        <v>156250</v>
+      </c>
+      <c r="O27" s="3">
+        <v>156250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="12">
+        <v>4</v>
+      </c>
+      <c r="C30" s="12">
+        <v>4</v>
+      </c>
+      <c r="D30" s="12">
+        <v>14</v>
+      </c>
+      <c r="E30" s="12">
+        <v>4</v>
+      </c>
+      <c r="F30" s="12">
+        <v>12</v>
+      </c>
+      <c r="G30" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="3">
+        <v>3</v>
+      </c>
+      <c r="C35" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D35" s="3">
+        <v>9</v>
+      </c>
+      <c r="E35" s="3">
+        <v>4</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="3">
+        <v>3</v>
+      </c>
+      <c r="C36" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D36" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E36" s="3">
+        <v>3</v>
+      </c>
+      <c r="F36" s="3">
+        <v>9</v>
+      </c>
+      <c r="G36" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="3">
+        <v>4</v>
+      </c>
+      <c r="C37" s="3">
+        <v>3</v>
+      </c>
+      <c r="D37" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E37" s="3">
+        <v>3</v>
+      </c>
+      <c r="F37" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G37" s="3">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A15:N15"/>
+  <mergeCells count="17">
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="J23:O23"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A8:O8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A15:O15"/>
     <mergeCell ref="B16:G16"/>
-    <mergeCell ref="I16:N16"/>
+    <mergeCell ref="J16:O16"/>
     <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A8:N8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="S2:X2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>